--- a/data/trans_dic/IP18A03-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP18A03-Edad-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>54,43%</t>
+          <t>31,8%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>64,74%</t>
+          <t>36,25%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>59,09%</t>
+          <t>33,81%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>41,17; 68,34</t>
+          <t>20,67; 44,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>48,97; 78,54</t>
+          <t>21,74; 51,4</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>48,42; 68,04</t>
+          <t>23,81; 42,59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>72,99%</t>
+          <t>70,93%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>73,64%</t>
+          <t>68,26%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>72,27%</t>
+          <t>72,92%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>65,41%</t>
+          <t>32,34%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>71,07%</t>
+          <t>64,73%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>76,63%</t>
+          <t>66,44%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>72,85%</t>
+          <t>71,09%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>69,73%</t>
+          <t>34,63%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>72,05%</t>
+          <t>67,96%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>75,08%</t>
+          <t>67,37%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>72,56%</t>
+          <t>72,03%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>67,19%</t>
+          <t>33,43%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>67,87; 77,18</t>
+          <t>65,71; 76,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>68,36; 77,64</t>
+          <t>62,84; 73,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>67,41; 76,75</t>
+          <t>68,25; 78,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>53,83; 75,34</t>
+          <t>19,16; 47,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>65,28; 75,65</t>
+          <t>58,38; 70,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>71,68; 80,9</t>
+          <t>61,17; 71,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>67,57; 77,07</t>
+          <t>65,87; 75,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>56,61; 82,18</t>
+          <t>22,64; 49,58</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>68,49; 75,22</t>
+          <t>63,74; 71,46</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>71,8; 78,13</t>
+          <t>63,47; 70,54</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>68,97; 75,91</t>
+          <t>68,33; 75,23</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>58,96; 74,63</t>
+          <t>23,61; 42,77</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>70,93%</t>
+          <t>72,99%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>68,26%</t>
+          <t>73,64%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>72,92%</t>
+          <t>72,27%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>80,48%</t>
+          <t>30,2%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>64,73%</t>
+          <t>71,07%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>66,44%</t>
+          <t>76,63%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>71,09%</t>
+          <t>72,85%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>66,91%</t>
+          <t>37,34%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>67,96%</t>
+          <t>72,05%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>67,37%</t>
+          <t>75,08%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>72,03%</t>
+          <t>72,56%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>74,02%</t>
+          <t>33,14%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>65,71; 76,1</t>
+          <t>67,87; 77,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>62,84; 73,52</t>
+          <t>68,36; 77,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>68,25; 78,04</t>
+          <t>67,41; 76,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>67,4; 89,94</t>
+          <t>20,24; 42,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>58,38; 70,05</t>
+          <t>65,28; 75,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>61,17; 71,59</t>
+          <t>71,68; 80,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>65,87; 75,95</t>
+          <t>67,57; 77,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>51,23; 79,59</t>
+          <t>24,98; 52,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>63,74; 71,46</t>
+          <t>68,49; 75,22</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>63,47; 70,54</t>
+          <t>71,8; 78,13</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>68,33; 75,23</t>
+          <t>68,97; 75,91</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>64,72; 82,38</t>
+          <t>24,89; 42,93</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>67,57%</t>
+          <t>31,19%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>67,62%</t>
+          <t>36,15%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>67,59%</t>
+          <t>33,38%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>59,8; 74,21</t>
+          <t>24,34; 38,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>59,16; 75,2</t>
+          <t>28,7; 44,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>61,92; 73,12</t>
+          <t>27,93; 39,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP18A03-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP18A03-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>48,09%</t>
+          <t>34,89%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>55,02%</t>
+          <t>47,25%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>47,09%</t>
+          <t>36,02%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>31,8%</t>
+          <t>26,59%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>51,93%</t>
+          <t>44,77%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>51,66%</t>
+          <t>46,31%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>48,7%</t>
+          <t>37,58%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>36,25%</t>
+          <t>32,18%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>50,0%</t>
+          <t>39,69%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>53,4%</t>
+          <t>46,78%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>47,88%</t>
+          <t>36,83%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>33,81%</t>
+          <t>29,27%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>42,41; 53,72</t>
+          <t>27,49; 42,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>49,38; 61,09</t>
+          <t>39,93; 54,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>41,48; 52,93</t>
+          <t>29,36; 43,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>20,67; 44,07</t>
+          <t>12,88; 44,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>45,56; 57,56</t>
+          <t>36,8; 52,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>45,99; 56,76</t>
+          <t>39,18; 52,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>43,22; 54,39</t>
+          <t>30,84; 45,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>21,74; 51,4</t>
+          <t>19,4; 49,97</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>46,13; 53,91</t>
+          <t>34,44; 44,95</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>49,45; 57,2</t>
+          <t>41,62; 51,47</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>43,79; 52,21</t>
+          <t>31,79; 41,51</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>23,81; 42,59</t>
+          <t>18,97; 41,35</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>70,93%</t>
+          <t>67,6%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>68,26%</t>
+          <t>68,01%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>72,92%</t>
+          <t>67,18%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>32,34%</t>
+          <t>29,79%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>64,73%</t>
+          <t>61,2%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>66,44%</t>
+          <t>64,91%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>71,09%</t>
+          <t>70,04%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>34,63%</t>
+          <t>40,58%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>67,96%</t>
+          <t>64,41%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>67,37%</t>
+          <t>66,57%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>72,03%</t>
+          <t>68,47%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>33,43%</t>
+          <t>34,77%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>65,71; 76,1</t>
+          <t>62,25; 72,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>62,84; 73,52</t>
+          <t>62,93; 72,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>68,25; 78,04</t>
+          <t>62,17; 71,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>19,16; 47,88</t>
+          <t>17,35; 44,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>58,38; 70,05</t>
+          <t>55,95; 66,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>61,17; 71,59</t>
+          <t>59,19; 69,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>65,87; 75,95</t>
+          <t>64,74; 74,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>22,64; 49,58</t>
+          <t>26,6; 57,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>63,74; 71,46</t>
+          <t>60,94; 67,84</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>63,47; 70,54</t>
+          <t>63,28; 70,28</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>68,33; 75,23</t>
+          <t>64,79; 71,99</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>23,61; 42,77</t>
+          <t>25,71; 45,46</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>72,99%</t>
+          <t>71,76%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>73,64%</t>
+          <t>73,29%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>72,27%</t>
+          <t>74,86%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>30,2%</t>
+          <t>31,47%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>71,07%</t>
+          <t>65,6%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>76,63%</t>
+          <t>71,14%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>72,85%</t>
+          <t>71,12%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>37,34%</t>
+          <t>36,59%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>72,05%</t>
+          <t>68,81%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>75,08%</t>
+          <t>72,22%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>72,56%</t>
+          <t>72,97%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>33,14%</t>
+          <t>33,85%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>67,87; 77,18</t>
+          <t>64,85; 78,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>68,36; 77,64</t>
+          <t>67,56; 80,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>67,41; 76,75</t>
+          <t>68,28; 80,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>20,24; 42,3</t>
+          <t>18,78; 47,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>65,28; 75,65</t>
+          <t>58,43; 72,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>71,68; 80,9</t>
+          <t>64,62; 76,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>67,57; 77,07</t>
+          <t>65,34; 77,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>24,98; 52,94</t>
+          <t>23,35; 58,65</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>68,49; 75,22</t>
+          <t>63,76; 73,83</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>71,8; 78,13</t>
+          <t>68,22; 76,47</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>68,97; 75,91</t>
+          <t>68,93; 76,73</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>24,89; 42,93</t>
+          <t>23,38; 46,09</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>64,36%</t>
+          <t>73,69%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>65,83%</t>
+          <t>71,7%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>64,89%</t>
+          <t>72,96%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>31,19%</t>
+          <t>34,04%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>62,81%</t>
+          <t>74,85%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>65,22%</t>
+          <t>77,29%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>65,07%</t>
+          <t>74,72%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>36,15%</t>
+          <t>33,28%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>63,6%</t>
+          <t>74,25%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>65,53%</t>
+          <t>74,4%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>64,98%</t>
+          <t>73,86%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>33,38%</t>
+          <t>33,75%</t>
         </is>
       </c>
     </row>
@@ -1144,68 +1144,216 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>61,16; 67,32</t>
+          <t>68,29; 78,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>62,72; 68,79</t>
+          <t>64,98; 76,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>61,87; 67,93</t>
+          <t>66,74; 79,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,34; 38,9</t>
+          <t>22,75; 51,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>59,51; 65,82</t>
+          <t>68,74; 80,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>62,23; 68,19</t>
+          <t>70,92; 82,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>62,1; 68,02</t>
+          <t>68,78; 80,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>28,7; 44,73</t>
+          <t>19,4; 50,72</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>61,38; 65,82</t>
+          <t>70,27; 78,21</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>63,41; 67,63</t>
+          <t>70,15; 78,0</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>62,88; 67,16</t>
+          <t>69,63; 78,19</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>27,93; 39,5</t>
+          <t>23,57; 44,69</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>64,36%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>65,83%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>64,89%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>31,19%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>62,81%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>65,22%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>65,07%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>36,15%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>63,6%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>65,53%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>64,98%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>33,38%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>60,8; 67,14</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>62,94; 68,78</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>61,75; 68,13</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>24,99; 39,27</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>59,57; 65,68</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>62,1; 67,96</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>62,06; 68,18</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>28,7; 45,59</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>61,35; 65,9</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>63,1; 67,45</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>62,69; 67,16</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>28,14; 39,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_dic/IP18A03-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP18A03-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27,49; 42,84</t>
+          <t>27,76; 42,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>39,93; 54,19</t>
+          <t>40,9; 54,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>29,36; 43,39</t>
+          <t>29,44; 42,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,88; 44,71</t>
+          <t>13,94; 43,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>36,8; 52,52</t>
+          <t>36,97; 51,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>39,18; 52,88</t>
+          <t>39,97; 53,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>30,84; 45,01</t>
+          <t>30,76; 44,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>19,4; 49,97</t>
+          <t>16,32; 49,94</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>34,44; 44,95</t>
+          <t>34,49; 45,48</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>41,62; 51,47</t>
+          <t>41,22; 51,16</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>31,79; 41,51</t>
+          <t>32,08; 41,67</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>18,97; 41,35</t>
+          <t>18,75; 40,14</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>62,25; 72,11</t>
+          <t>62,62; 72,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>62,93; 72,6</t>
+          <t>62,85; 72,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>62,17; 71,84</t>
+          <t>62,25; 72,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,35; 44,8</t>
+          <t>19,45; 44,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>55,95; 66,02</t>
+          <t>55,86; 65,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>59,19; 69,65</t>
+          <t>60,06; 70,48</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>64,74; 74,88</t>
+          <t>64,92; 75,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>26,6; 57,43</t>
+          <t>26,83; 57,17</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>60,94; 67,84</t>
+          <t>61,14; 68,35</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>63,28; 70,28</t>
+          <t>62,81; 70,13</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>64,79; 71,99</t>
+          <t>64,47; 71,97</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>25,71; 45,46</t>
+          <t>25,56; 45,11</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>64,85; 78,07</t>
+          <t>64,75; 78,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>67,56; 80,0</t>
+          <t>66,82; 79,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>68,28; 80,0</t>
+          <t>69,26; 80,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,78; 47,34</t>
+          <t>17,79; 46,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>58,43; 72,77</t>
+          <t>58,53; 73,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>64,62; 76,77</t>
+          <t>65,14; 77,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>65,34; 77,52</t>
+          <t>65,52; 76,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>23,35; 58,65</t>
+          <t>21,94; 57,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>63,76; 73,83</t>
+          <t>63,71; 73,76</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>68,22; 76,47</t>
+          <t>67,64; 76,32</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>68,93; 76,73</t>
+          <t>69,17; 76,95</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>23,38; 46,09</t>
+          <t>23,0; 45,1</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>68,29; 78,88</t>
+          <t>67,69; 78,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>64,98; 76,84</t>
+          <t>65,06; 76,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>66,74; 79,25</t>
+          <t>65,97; 79,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,75; 51,51</t>
+          <t>21,82; 48,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>68,74; 80,42</t>
+          <t>69,44; 80,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>70,92; 82,23</t>
+          <t>71,47; 82,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>68,78; 80,57</t>
+          <t>68,79; 80,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,4; 50,72</t>
+          <t>19,61; 52,54</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>70,27; 78,21</t>
+          <t>70,21; 77,94</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>70,15; 78,0</t>
+          <t>69,99; 78,46</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>69,63; 78,19</t>
+          <t>69,53; 77,76</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>23,57; 44,69</t>
+          <t>24,28; 44,79</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>60,8; 67,14</t>
+          <t>61,29; 67,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>62,94; 68,78</t>
+          <t>62,5; 68,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>61,75; 68,13</t>
+          <t>61,71; 67,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>24,99; 39,27</t>
+          <t>24,18; 38,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>59,57; 65,68</t>
+          <t>59,72; 66,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>62,1; 67,96</t>
+          <t>62,14; 68,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>62,06; 68,18</t>
+          <t>62,01; 68,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>28,7; 45,59</t>
+          <t>27,69; 44,09</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>61,35; 65,9</t>
+          <t>61,28; 65,72</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>63,1; 67,45</t>
+          <t>63,55; 67,55</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>62,69; 67,16</t>
+          <t>62,66; 66,97</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>28,14; 39,1</t>
+          <t>28,27; 38,98</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP18A03-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP18A03-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -656,42 +656,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>44,77%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>46,31%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>37,58%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>32,09%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>34,89%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>47,25%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>36,02%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>26,59%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>44,77%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>46,31%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>37,58%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>32,18%</t>
+          <t>28,44%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>29,27%</t>
+          <t>30,15%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27,76; 42,64</t>
+          <t>37,17; 52,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>40,9; 54,08</t>
+          <t>39,47; 53,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>29,44; 42,99</t>
+          <t>31,09; 44,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,94; 43,62</t>
+          <t>17,44; 50,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>36,97; 51,94</t>
+          <t>28,32; 42,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>39,97; 53,58</t>
+          <t>40,47; 54,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>30,76; 44,64</t>
+          <t>29,1; 43,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,32; 49,94</t>
+          <t>14,56; 48,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>34,49; 45,48</t>
+          <t>34,13; 45,91</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>41,22; 51,16</t>
+          <t>42,24; 51,83</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>32,08; 41,67</t>
+          <t>32,08; 42,34</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>18,75; 40,14</t>
+          <t>19,39; 42,6</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>61,2%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>64,91%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>70,04%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>39,99%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>67,6%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>68,01%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>67,18%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>29,79%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>61,2%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>64,91%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>70,04%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>40,58%</t>
+          <t>29,94%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>34,77%</t>
+          <t>34,52%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>62,62; 72,08</t>
+          <t>56,12; 66,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>62,85; 72,42</t>
+          <t>59,59; 70,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>62,25; 72,29</t>
+          <t>64,98; 75,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>19,45; 44,11</t>
+          <t>25,37; 54,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>55,86; 65,87</t>
+          <t>62,69; 72,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>60,06; 70,48</t>
+          <t>62,8; 72,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>64,92; 75,02</t>
+          <t>61,98; 71,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>26,83; 57,17</t>
+          <t>18,34; 43,97</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>61,14; 68,35</t>
+          <t>60,57; 67,61</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>62,81; 70,13</t>
+          <t>62,96; 70,11</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>64,47; 71,97</t>
+          <t>64,65; 71,86</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>25,56; 45,11</t>
+          <t>25,0; 44,99</t>
         </is>
       </c>
     </row>
@@ -936,42 +936,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>65,6%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>71,14%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>71,12%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>39,48%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>71,76%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>73,29%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>74,86%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>31,47%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>65,6%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>71,14%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>71,12%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>36,59%</t>
+          <t>32,58%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>33,85%</t>
+          <t>35,75%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>64,75; 78,34</t>
+          <t>57,8; 72,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>66,82; 79,04</t>
+          <t>65,01; 77,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>69,26; 80,1</t>
+          <t>65,52; 76,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,79; 46,78</t>
+          <t>22,82; 60,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>58,53; 73,17</t>
+          <t>64,72; 78,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>65,14; 77,41</t>
+          <t>66,23; 79,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>65,52; 76,87</t>
+          <t>68,97; 80,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>21,94; 57,21</t>
+          <t>19,77; 48,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>63,71; 73,76</t>
+          <t>63,57; 73,27</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>67,64; 76,32</t>
+          <t>67,81; 76,58</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>69,17; 76,95</t>
+          <t>69,03; 76,79</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>23,0; 45,1</t>
+          <t>24,51; 47,75</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>74,85%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>77,29%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>74,72%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>33,81%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>73,69%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>71,7%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>72,96%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>34,04%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>74,85%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>77,29%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>74,72%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>33,28%</t>
+          <t>34,75%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>33,75%</t>
+          <t>34,41%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>67,69; 78,99</t>
+          <t>69,1; 80,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>65,06; 76,73</t>
+          <t>70,94; 82,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>65,97; 79,08</t>
+          <t>68,9; 80,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>21,82; 48,82</t>
+          <t>18,35; 51,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>69,44; 80,32</t>
+          <t>67,89; 78,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>71,47; 82,54</t>
+          <t>65,38; 76,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>68,79; 80,09</t>
+          <t>66,09; 78,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,61; 52,54</t>
+          <t>21,68; 51,69</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>70,21; 77,94</t>
+          <t>70,44; 77,71</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>69,99; 78,46</t>
+          <t>70,19; 78,22</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>69,53; 77,76</t>
+          <t>69,16; 77,85</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>24,28; 44,79</t>
+          <t>24,71; 45,66</t>
         </is>
       </c>
     </row>
@@ -1216,42 +1216,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>62,81%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>65,22%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>65,07%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>37,04%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>64,36%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>65,83%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>64,89%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>31,19%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>62,81%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>65,22%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>65,07%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>36,15%</t>
+          <t>32,03%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>33,38%</t>
+          <t>34,19%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>61,29; 67,5</t>
+          <t>59,51; 65,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>62,5; 68,71</t>
+          <t>62,23; 68,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>61,71; 67,62</t>
+          <t>62,1; 68,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>24,18; 38,65</t>
+          <t>29,25; 45,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>59,72; 66,03</t>
+          <t>61,16; 67,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>62,14; 68,27</t>
+          <t>62,72; 68,79</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>62,01; 68,0</t>
+          <t>61,87; 67,93</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>27,69; 44,09</t>
+          <t>25,06; 39,72</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>61,28; 65,72</t>
+          <t>61,38; 65,82</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>63,55; 67,55</t>
+          <t>63,41; 67,63</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>62,66; 66,97</t>
+          <t>62,88; 67,16</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>28,27; 38,98</t>
+          <t>28,45; 40,44</t>
         </is>
       </c>
     </row>
